--- a/upload/limites_lrf.xlsx
+++ b/upload/limites_lrf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kbomf\Documents\despesa-pessoal-mg\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A1D4C40-373E-4D68-A6C3-B2B0729CFD9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE839D7C-3923-4B4E-BBED-265AF75FAAA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{2B6BEFAD-8E57-4AFA-B706-5C628227E6AF}"/>
   </bookViews>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
-  <si>
-    <t>APURAÇÃO DO CUMPRIMENTO DO LIMITE LEGAL</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
   <si>
     <t>Set/2024 a Ago/2025</t>
   </si>
@@ -934,33 +931,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{864D9DAE-907B-42FE-92D0-AD64C064EF43}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="121.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1">
         <v>109318007711.96001</v>
@@ -980,7 +979,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1">
         <v>-844405.5</v>
@@ -1000,7 +999,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1">
         <v>12049575.5</v>
@@ -1020,47 +1019,47 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1">
         <v>109306802541.96001</v>
@@ -1080,7 +1079,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1">
         <v>53034127686.489998</v>
@@ -1100,7 +1099,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1">
         <v>53560333245.559998</v>
@@ -1120,7 +1119,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" s="1">
         <v>50882316583.279999</v>
@@ -1140,7 +1139,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" s="1">
         <v>48204299921</v>

--- a/upload/limites_lrf.xlsx
+++ b/upload/limites_lrf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kbomf\Documents\despesa-pessoal-mg\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE839D7C-3923-4B4E-BBED-265AF75FAAA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C1C4E2-BEEF-48B1-B2FD-BE082843C50C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{2B6BEFAD-8E57-4AFA-B706-5C628227E6AF}"/>
   </bookViews>
@@ -22,21 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
   <si>
-    <t>Set/2024 a Ago/2025</t>
-  </si>
-  <si>
-    <t>Mai/2024 a Abr/2025</t>
-  </si>
-  <si>
-    <t>Jan/2024 a Dez/2024</t>
-  </si>
-  <si>
-    <t>Set/2023 a Ago/2024</t>
-  </si>
-  <si>
-    <t>Mai/2023 a Abr/2024</t>
-  </si>
-  <si>
     <t xml:space="preserve">RECEITA CORRENTE LÍQUIDA – RCL (IV) </t>
   </si>
   <si>
@@ -68,6 +53,21 @@
   </si>
   <si>
     <t>LIMITE DE ALERTA (XI) (inciso II do § 1º do art. 59 da LRF) – 44,10%</t>
+  </si>
+  <si>
+    <t>set_2024_a_ago_2025</t>
+  </si>
+  <si>
+    <t>mai_2025_a_abr_2025</t>
+  </si>
+  <si>
+    <t>jan_2024_a_dez_2024</t>
+  </si>
+  <si>
+    <t>set_2023_a_ago_2024</t>
+  </si>
+  <si>
+    <t>mai_2023_a_abr_2024</t>
   </si>
 </sst>
 </file>
@@ -932,7 +932,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -942,24 +942,24 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B3" s="1">
         <v>109318007711.96001</v>
@@ -979,7 +979,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1">
         <v>-844405.5</v>
@@ -999,7 +999,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1">
         <v>12049575.5</v>
@@ -1019,47 +1019,47 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>109306802541.96001</v>
@@ -1079,7 +1079,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>53034127686.489998</v>
@@ -1099,7 +1099,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>53560333245.559998</v>
@@ -1119,7 +1119,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>50882316583.279999</v>
@@ -1139,7 +1139,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>48204299921</v>

--- a/upload/limites_lrf.xlsx
+++ b/upload/limites_lrf.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kbomf\Documents\despesa-pessoal-mg\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m11483500\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C1C4E2-BEEF-48B1-B2FD-BE082843C50C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{2B6BEFAD-8E57-4AFA-B706-5C628227E6AF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11430"/>
   </bookViews>
   <sheets>
     <sheet name="limites_lrf" sheetId="1" r:id="rId1"/>
@@ -73,8 +72,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -585,10 +584,10 @@
     <cellStyle name="Ênfase5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Ênfase6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Neutro" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Incorreto" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Neutra" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Nota" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Ruim" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Saída" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Texto de Aviso" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Texto Explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
@@ -928,107 +927,202 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{864D9DAE-907B-42FE-92D0-AD64C064EF43}">
-  <dimension ref="A1:F12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="121.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" s="1">
+        <v>109318007711.96001</v>
+      </c>
+      <c r="C2" s="1">
+        <v>-844405.5</v>
+      </c>
+      <c r="D2" s="1">
+        <v>12049575.5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1">
+        <v>109306802541.96001</v>
+      </c>
+      <c r="H2" s="1">
+        <v>53034127686.489998</v>
+      </c>
+      <c r="I2" s="1">
+        <v>53560333245.559998</v>
+      </c>
+      <c r="J2" s="1">
+        <v>50882316583.279999</v>
+      </c>
+      <c r="K2" s="1">
+        <v>48204299921</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B3" s="1">
+        <v>106688331960.66</v>
+      </c>
+      <c r="C3" s="1">
+        <v>19069999.73</v>
+      </c>
+      <c r="D3" s="1">
+        <v>11634838.5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="1">
+        <v>106657627122.42999</v>
+      </c>
+      <c r="H3" s="1">
+        <v>52056327789.269997</v>
+      </c>
+      <c r="I3" s="1">
+        <v>52262237289.989998</v>
+      </c>
+      <c r="J3" s="1">
+        <v>49649125425.489998</v>
+      </c>
+      <c r="K3" s="1">
+        <v>47036013560.989998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B4" s="1">
+        <v>103495630628.38</v>
+      </c>
+      <c r="C4" s="1">
+        <v>18269291.93</v>
+      </c>
+      <c r="D4" s="1">
+        <v>11634838.5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="1">
+        <v>103465726497.95</v>
+      </c>
+      <c r="H4" s="1">
+        <v>50492145171.779999</v>
+      </c>
+      <c r="I4" s="1">
+        <v>50698205984</v>
+      </c>
+      <c r="J4" s="1">
+        <v>48163295684.800003</v>
+      </c>
+      <c r="K4" s="1">
+        <v>45628385385.599998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B5" s="1">
+        <v>99192789740.149994</v>
+      </c>
+      <c r="C5" s="1">
+        <v>56492032.229999997</v>
+      </c>
+      <c r="D5" s="1">
+        <v>19022957</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="1">
+        <v>99117274750.919998</v>
+      </c>
+      <c r="H5" s="1">
+        <v>49676872959.790001</v>
+      </c>
+      <c r="I5" s="1">
+        <v>48567464627.949997</v>
+      </c>
+      <c r="J5" s="1">
+        <v>46139091396.550003</v>
+      </c>
+      <c r="K5" s="1">
+        <v>43710718165.160004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1">
-        <v>109318007711.96001</v>
-      </c>
-      <c r="C3" s="1">
-        <v>106688331960.66</v>
-      </c>
-      <c r="D3" s="1">
-        <v>103495630628.38</v>
-      </c>
-      <c r="E3" s="1">
-        <v>99192789740.149994</v>
-      </c>
-      <c r="F3" s="1">
+      <c r="B6" s="1">
         <v>95864466156.229996</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1">
-        <v>-844405.5</v>
-      </c>
-      <c r="C4" s="1">
-        <v>19069999.73</v>
-      </c>
-      <c r="D4" s="1">
-        <v>18269291.93</v>
-      </c>
-      <c r="E4" s="1">
-        <v>56492032.229999997</v>
-      </c>
-      <c r="F4" s="1">
+      <c r="C6" s="1">
         <v>79853284.640000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1">
-        <v>12049575.5</v>
-      </c>
-      <c r="C5" s="1">
-        <v>11634838.5</v>
-      </c>
-      <c r="D5" s="1">
-        <v>11634838.5</v>
-      </c>
-      <c r="E5" s="1">
-        <v>19022957</v>
-      </c>
-      <c r="F5" s="1">
+      <c r="D6" s="1">
         <v>18522957</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
       </c>
       <c r="E6" t="s">
         <v>4</v>
@@ -1036,124 +1130,19 @@
       <c r="F6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1">
-        <v>109306802541.96001</v>
-      </c>
-      <c r="C8" s="1">
-        <v>106657627122.42999</v>
-      </c>
-      <c r="D8" s="1">
-        <v>103465726497.95</v>
-      </c>
-      <c r="E8" s="1">
-        <v>99117274750.919998</v>
-      </c>
-      <c r="F8" s="1">
+      <c r="G6" s="1">
         <v>95766089914.589996</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1">
-        <v>53034127686.489998</v>
-      </c>
-      <c r="C9" s="1">
-        <v>52056327789.269997</v>
-      </c>
-      <c r="D9" s="1">
-        <v>50492145171.779999</v>
-      </c>
-      <c r="E9" s="1">
-        <v>49676872959.790001</v>
-      </c>
-      <c r="F9" s="1">
+      <c r="H6" s="1">
         <v>48234855928.120003</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1">
-        <v>53560333245.559998</v>
-      </c>
-      <c r="C10" s="1">
-        <v>52262237289.989998</v>
-      </c>
-      <c r="D10" s="1">
-        <v>50698205984</v>
-      </c>
-      <c r="E10" s="1">
-        <v>48567464627.949997</v>
-      </c>
-      <c r="F10" s="1">
+      <c r="I6" s="1">
         <v>46925384058.150002</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1">
-        <v>50882316583.279999</v>
-      </c>
-      <c r="C11" s="1">
-        <v>49649125425.489998</v>
-      </c>
-      <c r="D11" s="1">
-        <v>48163295684.800003</v>
-      </c>
-      <c r="E11" s="1">
-        <v>46139091396.550003</v>
-      </c>
-      <c r="F11" s="1">
+      <c r="J6" s="1">
         <v>44579114855.239998</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1">
-        <v>48204299921</v>
-      </c>
-      <c r="C12" s="1">
-        <v>47036013560.989998</v>
-      </c>
-      <c r="D12" s="1">
-        <v>45628385385.599998</v>
-      </c>
-      <c r="E12" s="1">
-        <v>43710718165.160004</v>
-      </c>
-      <c r="F12" s="1">
+      <c r="K6" s="1">
         <v>42232845652.330002</v>
       </c>
     </row>

--- a/upload/limites_lrf.xlsx
+++ b/upload/limites_lrf.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t xml:space="preserve">RECEITA CORRENTE LÍQUIDA – RCL (IV) </t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>mai_2023_a_abr_2024</t>
+  </si>
+  <si>
+    <t>mes_ano_a_mes_ano</t>
   </si>
 </sst>
 </file>
@@ -931,7 +934,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -940,6 +943,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>

--- a/upload/limites_lrf.xlsx
+++ b/upload/limites_lrf.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m11483500\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kbomf\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED233161-EEDD-440A-9C7D-EC06DA68ED40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11430"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="limites_lrf" sheetId="1" r:id="rId1"/>
@@ -75,8 +76,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -555,7 +556,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -587,10 +588,10 @@
     <cellStyle name="Ênfase5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Ênfase6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Incorreto" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Neutra" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Neutro" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Nota" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Ruim" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Saída" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Texto de Aviso" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Texto Explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
@@ -930,54 +931,65 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="89.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="90.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="121.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="100.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="60.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="54.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="59.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="59" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -990,10 +1002,10 @@
       <c r="D2" s="1">
         <v>12049575.5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="1">
@@ -1012,7 +1024,7 @@
         <v>48204299921</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1025,10 +1037,10 @@
       <c r="D3" s="1">
         <v>11634838.5</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="1">
@@ -1047,7 +1059,7 @@
         <v>47036013560.989998</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1060,10 +1072,10 @@
       <c r="D4" s="1">
         <v>11634838.5</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G4" s="1">
@@ -1082,7 +1094,7 @@
         <v>45628385385.599998</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1095,10 +1107,10 @@
       <c r="D5" s="1">
         <v>19022957</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G5" s="1">
@@ -1117,7 +1129,7 @@
         <v>43710718165.160004</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1130,10 +1142,10 @@
       <c r="D6" s="1">
         <v>18522957</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G6" s="1">
